--- a/Report_data/INV202200011.xlsx
+++ b/Report_data/INV202200011.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>Id de origen</t>
   </si>
@@ -123,6 +123,9 @@
     <t>BienesTransp</t>
   </si>
   <si>
+    <t>Clave STCC</t>
+  </si>
+  <si>
     <t>Mercancia</t>
   </si>
   <si>
@@ -165,12 +168,18 @@
     <t>Pedimento</t>
   </si>
   <si>
+    <t>1234</t>
+  </si>
+  <si>
     <t>EKU9003173C9</t>
   </si>
   <si>
     <t>GIFAN INTERNACIONAL S DE RL DE CV</t>
   </si>
   <si>
+    <t>214</t>
+  </si>
+  <si>
     <t>CARRETERA PUENTE DE VIGAS KM 14.5</t>
   </si>
   <si>
@@ -189,10 +198,16 @@
     <t>54915</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>CCF121101KQ4</t>
   </si>
   <si>
     <t>COMERCIAL CITY FRESKO S DE RL DE CV</t>
+  </si>
+  <si>
+    <t>2324</t>
   </si>
   <si>
     <t>AV INSURGENTES SUR</t>
@@ -295,6 +310,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -347,11 +366,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,13 +667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,34 +821,37 @@
       <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="b">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44888</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44888.93012731482</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>345645</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -836,96 +860,96 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="2">
+        <v>44889</v>
+      </c>
+      <c r="X2" s="3">
+        <v>44889.93012731482</v>
+      </c>
+      <c r="Y2">
+        <v>12321</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>55</v>
-      </c>
       <c r="AI2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2">
+        <v>69</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2">
         <v>20</v>
       </c>
-      <c r="AM2" t="s">
-        <v>66</v>
-      </c>
       <c r="AN2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="b">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2" t="b">
@@ -934,19 +958,22 @@
       <c r="AR2" t="b">
         <v>0</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="b">
         <v>0</v>
       </c>
       <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
         <v>17.89</v>
       </c>
-      <c r="AU2" t="s">
-        <v>67</v>
-      </c>
       <c r="AV2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX2" t="b">
+        <v>72</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -965,25 +992,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1001,52 +1028,52 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
